--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_36.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3251944.209793882</v>
+        <v>3356883.439969247</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939063</v>
+        <v>12443012.75936921</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8065992.409971929</v>
+        <v>8082309.857032561</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>188.1012737160417</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>213.245306934905</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -817,25 +819,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>84.9045280055218</v>
       </c>
       <c r="G4" t="n">
-        <v>57.02146927219754</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>191.3279446875566</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>31.86562382405631</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247721</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>88.14355078984926</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>285.5176619714878</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>268.0081557543813</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,13 +1189,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>93.45832099395179</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1291,22 +1293,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>66.23125412673315</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1342,7 +1344,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1357,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>195.55744573733</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>1.79977260571659</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>74.95497330698008</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1622,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1661,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1762,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8253826161913524</v>
+        <v>142.7059665293332</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -2008,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>104.1233804225864</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>74.560492073296</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2144,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>85.08368458989466</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>61.44013021076844</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>120.6127326838981</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>144.1088433014945</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2536,10 +2538,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>66.12869588327312</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,16 +2724,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>71.79687029691122</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2801,10 +2803,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G29" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2950,13 +2952,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2968,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>40.62253010341789</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,10 +3006,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>102.1656705247866</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3083,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3190,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>1.79977260571659</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856552</v>
@@ -3241,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>13.03790159951687</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3266,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.272891771009</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3281,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3326,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3424,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>23.62554568141315</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3512,10 +3514,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3664,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>74.41917683133136</v>
       </c>
       <c r="E40" t="n">
-        <v>18.7084378797738</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856552</v>
@@ -3715,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3949,13 +3951,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>38.21875275158355</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>73.44478684180609</v>
       </c>
     </row>
     <row r="44">
@@ -3980,7 +3982,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206837</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -4138,10 +4140,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428269</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,10 +4191,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>171.1529885179057</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1405.52688261361</v>
+        <v>1116.060225937134</v>
       </c>
       <c r="C2" t="n">
-        <v>1036.564365673198</v>
+        <v>1116.060225937134</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.564365673198</v>
+        <v>926.0589393552737</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.564365673198</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993392</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.097597267229</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V2" t="n">
-        <v>2535.034709923658</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W2" t="n">
-        <v>2182.266054653544</v>
+        <v>1876.125824262336</v>
       </c>
       <c r="X2" t="n">
-        <v>2182.266054653544</v>
+        <v>1502.660066001256</v>
       </c>
       <c r="Y2" t="n">
-        <v>1792.126722677732</v>
+        <v>1502.660066001256</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811086</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999816</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>312.38440256016</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927786</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064628</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>932.4978103100997</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2015.115393042426</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2262.298126874723</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>270.9995076393842</v>
+        <v>559.7133592494368</v>
       </c>
       <c r="C4" t="n">
-        <v>270.9995076393842</v>
+        <v>390.77717632153</v>
       </c>
       <c r="D4" t="n">
-        <v>270.9995076393842</v>
+        <v>390.77717632153</v>
       </c>
       <c r="E4" t="n">
-        <v>270.9995076393842</v>
+        <v>242.8640827391368</v>
       </c>
       <c r="F4" t="n">
-        <v>124.1095601414738</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T4" t="n">
-        <v>1513.842048484845</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1224.739181610489</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="V4" t="n">
-        <v>970.0546934046018</v>
+        <v>962.1544032232067</v>
       </c>
       <c r="W4" t="n">
-        <v>680.6375233676413</v>
+        <v>962.1544032232067</v>
       </c>
       <c r="X4" t="n">
-        <v>452.6479724696239</v>
+        <v>962.1544032232067</v>
       </c>
       <c r="Y4" t="n">
-        <v>452.6479724696239</v>
+        <v>741.3618240796766</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1643.543434242328</v>
+        <v>1617.332751740275</v>
       </c>
       <c r="C5" t="n">
-        <v>1274.580917301916</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="D5" t="n">
-        <v>916.3152186951659</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="E5" t="n">
-        <v>530.5269660969217</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F5" t="n">
-        <v>119.5410613073141</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>421.6795797345445</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993393</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>3087.440575181215</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V5" t="n">
-        <v>2756.377687837644</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.60903256753</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="X5" t="n">
-        <v>2030.14327430645</v>
+        <v>1810.593301929726</v>
       </c>
       <c r="Y5" t="n">
-        <v>2030.14327430645</v>
+        <v>1810.593301929726</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332746</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927777</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064525</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>638.0146769637288</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1001.276695922949</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>363.5187033424295</v>
+        <v>457.1299527650195</v>
       </c>
       <c r="C7" t="n">
-        <v>363.5187033424295</v>
+        <v>288.1937698371127</v>
       </c>
       <c r="D7" t="n">
-        <v>213.4020639300938</v>
+        <v>288.1937698371127</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>140.2806762547195</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>140.2806762547195</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>140.2806762547195</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>140.2806762547195</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1135.609912483294</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V7" t="n">
-        <v>880.9254242774075</v>
+        <v>859.5709967387894</v>
       </c>
       <c r="W7" t="n">
-        <v>591.5082542404468</v>
+        <v>859.5709967387894</v>
       </c>
       <c r="X7" t="n">
-        <v>363.5187033424295</v>
+        <v>859.5709967387894</v>
       </c>
       <c r="Y7" t="n">
-        <v>363.5187033424295</v>
+        <v>638.7784175952593</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1617.939223126803</v>
+        <v>1811.579746109089</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1442.617229168677</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>786.1136677276231</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
@@ -4805,7 +4807,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4835,19 +4837,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V8" t="n">
-        <v>3120.91280869793</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W8" t="n">
-        <v>2768.144153427816</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="X8" t="n">
-        <v>2394.678395166736</v>
+        <v>2588.318918149022</v>
       </c>
       <c r="Y8" t="n">
-        <v>2004.539063190924</v>
+        <v>2198.17958617321</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
@@ -4887,7 +4889,7 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4902,7 +4904,7 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
         <v>2564.909189125857</v>
@@ -4911,16 +4913,16 @@
         <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
@@ -4936,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>676.468527222536</v>
+        <v>431.4421061205821</v>
       </c>
       <c r="C10" t="n">
-        <v>507.5323442946291</v>
+        <v>431.4421061205821</v>
       </c>
       <c r="D10" t="n">
-        <v>507.5323442946291</v>
+        <v>281.3254667082464</v>
       </c>
       <c r="E10" t="n">
-        <v>359.619250712236</v>
+        <v>133.4123731258533</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218342</v>
@@ -4990,22 +4992,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1356.675339798491</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1101.990851592604</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1101.990851592604</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X10" t="n">
-        <v>874.0013006945865</v>
+        <v>652.2346852641123</v>
       </c>
       <c r="Y10" t="n">
-        <v>676.468527222536</v>
+        <v>431.4421061205821</v>
       </c>
     </row>
     <row r="11">
@@ -5033,7 +5035,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192599</v>
@@ -5042,28 +5044,28 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492579</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M12" t="n">
-        <v>738.7889117913853</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1366.386875345992</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
         <v>2283.159972732779</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121648</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5221,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2371.250989330786</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2151.649524353727</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1862.574297697925</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1607.889809492038</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1318.472639455077</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1090.48308855706</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>869.6905094135296</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,52 +5266,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637307</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876693</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597624</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D16" t="n">
-        <v>261.8464821474266</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5458,28 +5460,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5507,55 +5509,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1307.627092998424</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O18" t="n">
         <v>1859.536823237711</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>741.843151638089</v>
+        <v>924.6979859831846</v>
       </c>
       <c r="C19" t="n">
-        <v>572.9069687101821</v>
+        <v>755.7618030552777</v>
       </c>
       <c r="D19" t="n">
-        <v>422.7903292978464</v>
+        <v>605.645163642942</v>
       </c>
       <c r="E19" t="n">
-        <v>422.7903292978464</v>
+        <v>457.7320700605488</v>
       </c>
       <c r="F19" t="n">
-        <v>422.7903292978464</v>
+        <v>310.8421225626385</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>310.8421225626385</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>169.1302914048365</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X19" t="n">
-        <v>1144.284195611859</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="Y19" t="n">
-        <v>923.4916164683287</v>
+        <v>1106.346450813424</v>
       </c>
     </row>
     <row r="20">
@@ -5741,58 +5743,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N21" t="n">
-        <v>1859.536823237711</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876693</v>
+        <v>2939.372134388645</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597624</v>
+        <v>2770.435951460738</v>
       </c>
       <c r="D22" t="n">
-        <v>261.8464821474266</v>
+        <v>2770.435951460738</v>
       </c>
       <c r="E22" t="n">
-        <v>175.9033664000583</v>
+        <v>2770.435951460738</v>
       </c>
       <c r="F22" t="n">
-        <v>175.9033664000583</v>
+        <v>2623.546003962827</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614391</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.547769317909</v>
+        <v>2939.372134388645</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5980,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819251</v>
+        <v>95.34095638192601</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>315.9123021921476</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M24" t="n">
-        <v>913.2907898186995</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373306</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>870.3164745246301</v>
+        <v>801.6605733532801</v>
       </c>
       <c r="C25" t="n">
-        <v>701.3802915967232</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6169,28 +6171,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1272.7575184984</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y25" t="n">
-        <v>1051.96493935487</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6239,19 +6241,19 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6263,10 +6265,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M27" t="n">
-        <v>840.8417932021785</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N27" t="n">
-        <v>1468.439756756785</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3044.370838283061</v>
+        <v>996.5276398439761</v>
       </c>
       <c r="C28" t="n">
-        <v>2875.434655355155</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D28" t="n">
-        <v>2725.318015942819</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E28" t="n">
-        <v>2577.404922360426</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>2504.882831151424</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>2337.686731866304</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>4507.978318053498</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>4218.903091397696</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>3964.218603191809</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W28" t="n">
-        <v>3674.801433154848</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X28" t="n">
-        <v>3446.811882256831</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="Y28" t="n">
-        <v>3226.019303113301</v>
+        <v>1178.176104674216</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6451,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,13 +6460,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6537,31 +6539,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803938</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>315.9123021921476</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M30" t="n">
-        <v>913.2907898186995</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373306</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612593</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1057.613315601761</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="C31" t="n">
-        <v>888.6771326738542</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D31" t="n">
-        <v>738.5604932615184</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E31" t="n">
-        <v>590.6473996791253</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F31" t="n">
-        <v>443.7574521812149</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>276.5613528960949</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>134.849521738293</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797189</v>
@@ -6652,19 +6654,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510509</v>
+        <v>1874.263433515775</v>
       </c>
       <c r="V31" t="n">
-        <v>1977.461080510509</v>
+        <v>1619.578945309888</v>
       </c>
       <c r="W31" t="n">
-        <v>1688.043910473548</v>
+        <v>1330.161775272927</v>
       </c>
       <c r="X31" t="n">
-        <v>1460.054359575531</v>
+        <v>1102.17222437491</v>
       </c>
       <c r="Y31" t="n">
-        <v>1239.261780432001</v>
+        <v>881.3796452313796</v>
       </c>
     </row>
     <row r="32">
@@ -6689,58 +6691,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>221.3431781811715</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N33" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782958</v>
@@ -6889,19 +6891,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1964.291482935239</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1709.606994729352</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,37 +6925,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852256</v>
@@ -6968,19 +6970,19 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="36">
@@ -7017,22 +7019,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>738.7889117913853</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1366.386875345992</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
@@ -7117,28 +7119,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,43 +7171,43 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7248,31 +7250,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2532.719182723414</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2757.723669558406</v>
+        <v>1023.721406539404</v>
       </c>
       <c r="C40" t="n">
-        <v>2588.787486630499</v>
+        <v>854.7852236114971</v>
       </c>
       <c r="D40" t="n">
-        <v>2438.670847218163</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E40" t="n">
-        <v>2419.773435218392</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F40" t="n">
-        <v>2419.773435218392</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>2419.773435218392</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>4221.331149328842</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>3932.25592267304</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V40" t="n">
-        <v>3677.571434467153</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W40" t="n">
-        <v>3388.154264430193</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X40" t="n">
-        <v>3160.164713532175</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y40" t="n">
-        <v>2939.372134388645</v>
+        <v>1205.369871369644</v>
       </c>
     </row>
     <row r="41">
@@ -7400,40 +7402,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
         <v>4606.285157492578</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,19 +7484,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>716.6687843969303</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M42" t="n">
         <v>716.6687843969303</v>
@@ -7561,10 +7563,10 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7597,19 +7599,19 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2264.108249235165</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1975.033022579363</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V43" t="n">
-        <v>1936.428221820188</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W43" t="n">
-        <v>1647.011051783227</v>
+        <v>1500.405126015259</v>
       </c>
       <c r="X43" t="n">
-        <v>1419.02150088521</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y43" t="n">
         <v>1198.22892174168</v>
@@ -7622,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,40 +7660,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,10 +7721,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
         <v>243.4633055756266</v>
@@ -7734,19 +7736,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1700.311647517213</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2252.2213777565</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2757.723669558406</v>
+        <v>3195.647281583948</v>
       </c>
       <c r="C46" t="n">
-        <v>2588.787486630499</v>
+        <v>3026.711098656041</v>
       </c>
       <c r="D46" t="n">
-        <v>2588.787486630499</v>
+        <v>2876.594459243706</v>
       </c>
       <c r="E46" t="n">
-        <v>2588.787486630499</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="F46" t="n">
-        <v>2588.787486630499</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G46" t="n">
-        <v>2421.591387345379</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H46" t="n">
-        <v>2337.686731866305</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866305</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296629</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822168</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998108</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729143</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.430181389151</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098136</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671695</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650996</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.932614305901</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328842</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U46" t="n">
-        <v>3932.25592267304</v>
+        <v>4115.495046492696</v>
       </c>
       <c r="V46" t="n">
-        <v>3677.571434467153</v>
+        <v>4115.495046492696</v>
       </c>
       <c r="W46" t="n">
-        <v>3388.154264430193</v>
+        <v>3826.077876455735</v>
       </c>
       <c r="X46" t="n">
-        <v>3160.164713532175</v>
+        <v>3598.088325557718</v>
       </c>
       <c r="Y46" t="n">
-        <v>2939.372134388645</v>
+        <v>3377.295746414188</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8061,7 +8063,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>186.5911984019045</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8298,13 +8300,13 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>45.44676101130892</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>249.3877325071651</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8313,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23413,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>106.0713126946645</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23650,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>145.6085800303778</v>
+        <v>3.727996117236017</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856552</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23896,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>61.40075786968248</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>6.705344245269529</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24124,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>61.35027805667451</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>104.0840080815004</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>59.21924749803919</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>4.506629716717896</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>101.1181252153547</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>73.62417772602002</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>40.64330621514762</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,10 +24894,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>184.0188038644575</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25078,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>138.4949402405073</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25129,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>273.1465727897273</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25312,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>124.9899273367992</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25552,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>74.196296186881</v>
       </c>
       <c r="E40" t="n">
-        <v>127.7255247667954</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25603,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25837,13 +25839,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>213.9188905722444</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>145.1398665102887</v>
       </c>
     </row>
     <row r="44">
@@ -26026,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194117</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>115.0314858713384</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>706424.7198948135</v>
+        <v>714743.4183963126</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>706424.7198948135</v>
+        <v>714743.4183963126</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>694613.8252466777</v>
+        <v>694613.8252466779</v>
       </c>
     </row>
     <row r="6">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>694613.8252466779</v>
+        <v>694613.8252466777</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>694613.8252466777</v>
+        <v>694613.8252466779</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778554</v>
+        <v>738937.5928778544</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778555</v>
+        <v>738937.5928778545</v>
       </c>
       <c r="D2" t="n">
         <v>738937.5928778553</v>
       </c>
       <c r="E2" t="n">
+        <v>726431.939721005</v>
+      </c>
+      <c r="F2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="G2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="H2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
+        <v>726431.9397210049</v>
+      </c>
+      <c r="J2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
         <v>726431.9397210054</v>
       </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
         <v>726431.9397210055</v>
       </c>
-      <c r="I2" t="n">
-        <v>726431.9397210048</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
         <v>726431.9397210052</v>
-      </c>
-      <c r="K2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="L2" t="n">
-        <v>726431.939721005</v>
-      </c>
-      <c r="M2" t="n">
-        <v>726431.9397210055</v>
       </c>
       <c r="N2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="O2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210054</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>192627.1404403378</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,25 +26386,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>48293.97000819063</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>5.148837678054155e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>88524.2351281079</v>
+        <v>136726.2736921025</v>
       </c>
       <c r="C4" t="n">
-        <v>88524.23512810787</v>
+        <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
         <v>88524.23512810789</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="F4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="H4" t="n">
         <v>9337.20035675659</v>
@@ -26439,25 +26441,25 @@
         <v>9337.200356756592</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="K4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="M4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756508</v>
       </c>
       <c r="N4" t="n">
-        <v>9337.200356756548</v>
+        <v>9337.200356756563</v>
       </c>
       <c r="O4" t="n">
-        <v>9337.200356756548</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="P4" t="n">
-        <v>9337.200356756557</v>
+        <v>9337.200356756592</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,37 +26521,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-786265.3285392384</v>
+        <v>-605478.2368300123</v>
       </c>
       <c r="C6" t="n">
-        <v>542479.4171883544</v>
+        <v>509273.5467459072</v>
       </c>
       <c r="D6" t="n">
-        <v>542479.4171883541</v>
+        <v>349852.2767480163</v>
       </c>
       <c r="E6" t="n">
-        <v>290559.7477329862</v>
+        <v>290559.747732986</v>
       </c>
       <c r="F6" t="n">
-        <v>615972.2095403415</v>
+        <v>615972.2095403417</v>
       </c>
       <c r="G6" t="n">
-        <v>615972.2095403417</v>
+        <v>615972.2095403421</v>
       </c>
       <c r="H6" t="n">
-        <v>615972.2095403417</v>
+        <v>615972.2095403416</v>
       </c>
       <c r="I6" t="n">
-        <v>615972.209540341</v>
+        <v>615972.2095403412</v>
       </c>
       <c r="J6" t="n">
-        <v>398441.0071430641</v>
+        <v>448367.031730359</v>
       </c>
       <c r="K6" t="n">
         <v>615972.2095403417</v>
       </c>
       <c r="L6" t="n">
-        <v>615972.2095403413</v>
+        <v>567678.2395321513</v>
       </c>
       <c r="M6" t="n">
         <v>530917.1816048298</v>
@@ -26558,10 +26560,10 @@
         <v>615972.2095403417</v>
       </c>
       <c r="O6" t="n">
-        <v>615972.2095403416</v>
+        <v>615972.2095403419</v>
       </c>
       <c r="P6" t="n">
-        <v>615972.2095403416</v>
+        <v>615972.2095403417</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26817,7 +26819,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099649</v>
@@ -26826,10 +26828,10 @@
         <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26944,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483757</v>
@@ -26978,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022534</v>
       </c>
       <c r="M4" t="n">
         <v>341.306832697356</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27381,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>166.5817679046413</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>193.6307388068065</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>60.51652001740945</v>
       </c>
       <c r="G4" t="n">
-        <v>109.0043389868307</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27591,19 +27593,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>191.405896975924</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>219.1295481348457</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>16.65304441405132</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27828,19 +27830,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0.6941762341251092</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>86.67488586630162</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,13 +27909,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>234.2939374761831</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28011,22 +28013,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>79.1897938961981</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28062,7 +28064,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>23.02720761476479</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31838,25 +31840,25 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>640.7275049411303</v>
+        <v>279.0775374915851</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>375.5996128485291</v>
@@ -31996,7 +31998,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K14" t="n">
         <v>699.5441750817577</v>
@@ -32078,7 +32080,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305192</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473073</v>
@@ -32087,19 +32089,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>253.6713445157994</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>379.4203056753698</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>322.6999460717711</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>175.960367665998</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32789,13 +32791,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>211.7351844430268</v>
+        <v>242.2322097768135</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
@@ -32807,7 +32809,7 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -32965,7 +32967,7 @@
         <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043726</v>
@@ -33020,25 +33022,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>565.8030433278957</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>537.6437863443696</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214699</v>
@@ -33047,7 +33049,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33257,16 +33259,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>209.9499448422518</v>
+        <v>254.8897444730604</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862122</v>
@@ -33278,13 +33280,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33494,25 +33496,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>264.8708611242907</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>333.9544784328822</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214699</v>
@@ -33521,7 +33523,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33652,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33737,25 +33739,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>640.7275049411303</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>354.9153144485699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33968,7 +33970,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33992,10 +33994,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>360.9226811202611</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>166.2270851128133</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34208,16 +34210,16 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>616.5397119226052</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>270.948695672725</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071786</v>
@@ -34369,7 +34371,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817571</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
         <v>867.8464071162563</v>
@@ -34387,7 +34389,7 @@
         <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043726</v>
@@ -34454,22 +34456,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>400.8433522134838</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>303.0719207327591</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>343.1271216491591</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>640.584832100039</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35486,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>498.1312604966859</v>
+        <v>136.4812930471406</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625076</v>
@@ -35644,7 +35646,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K14" t="n">
         <v>479.4543240367771</v>
@@ -35726,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>188.9220579561602</v>
       </c>
       <c r="L15" t="n">
         <v>500.3288951674331</v>
@@ -35735,19 +35737,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>122.3296324324661</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,25 +35968,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>237.2862717533515</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>191.3582339884378</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36437,13 +36439,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>73.1808046631526</v>
+        <v>103.6778299969394</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
@@ -36455,7 +36457,7 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789214</v>
@@ -36613,7 +36615,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902405</v>
@@ -36668,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>423.6690094058774</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>395.0475418999251</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071396</v>
@@ -36695,7 +36697,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>71.39556506237764</v>
+        <v>116.3353646931863</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36926,13 +36928,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>127.0294221499317</v>
       </c>
       <c r="L33" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>191.3582339884378</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071396</v>
@@ -37169,7 +37171,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37385,25 +37387,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>498.1312604966859</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789214</v>
@@ -37540,7 +37542,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.4543240367771</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37640,10 +37642,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>220.9409070342396</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37856,16 +37858,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>477.985332142731</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>128.8146617507067</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238454</v>
@@ -38017,7 +38019,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367765</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
         <v>632.079992146269</v>
@@ -38035,7 +38037,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902405</v>
@@ -38102,22 +38104,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>266.8689447991536</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3356883.439969247</v>
+        <v>3352787.798464481</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>188.1012737160417</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>53.39577920586418</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,19 +712,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>72.55303430533274</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>84.9045280055218</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -867,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>191.3279446875566</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>63.59441785694261</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>88.14355078984926</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>50.98074812542808</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>268.0081557543813</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>324.4174861796737</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1302,10 +1302,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>66.23125412673315</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>71.6703719699171</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1539,13 +1539,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>135.0949745400652</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>74.95497330698008</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1773,13 +1773,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>142.7059665293332</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2016,13 +2016,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>74.560492073296</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>61.44013021076844</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>120.6127326838981</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>53.07327741456097</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>9.592641220496363</v>
       </c>
       <c r="C28" t="n">
-        <v>66.12869588327312</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2772,13 +2772,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2803,13 +2803,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,16 +2952,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>102.1656705247866</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>87.21471514852939</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3198,7 +3198,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>13.03790159951687</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.272891771009</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3316,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>23.62554568141315</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3514,10 +3514,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3663,16 +3663,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D40" t="n">
-        <v>74.41917683133136</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>73.44478684180609</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,10 +4191,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>171.1529885179057</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1116.060225937134</v>
+        <v>1367.208738248819</v>
       </c>
       <c r="C2" t="n">
-        <v>1116.060225937134</v>
+        <v>998.2462213084073</v>
       </c>
       <c r="D2" t="n">
-        <v>926.0589393552737</v>
+        <v>998.2462213084073</v>
       </c>
       <c r="E2" t="n">
-        <v>540.2706867570294</v>
+        <v>998.2462213084073</v>
       </c>
       <c r="F2" t="n">
-        <v>129.2847819674218</v>
+        <v>587.2603165187998</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>171.5555662430886</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
@@ -4330,16 +4330,16 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V2" t="n">
-        <v>2228.89447953245</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="W2" t="n">
-        <v>1876.125824262336</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="X2" t="n">
-        <v>1502.660066001256</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="Y2" t="n">
-        <v>1502.660066001256</v>
+        <v>1753.808578312941</v>
       </c>
     </row>
     <row r="3">
@@ -4403,31 +4403,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L3" t="n">
-        <v>932.4978103100997</v>
+        <v>979.6730931919907</v>
       </c>
       <c r="M3" t="n">
-        <v>1295.75982926932</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N3" t="n">
-        <v>1683.044957866265</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O3" t="n">
-        <v>2015.115393042426</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P3" t="n">
-        <v>2262.298126874723</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>559.7133592494368</v>
+        <v>2013.576367813028</v>
       </c>
       <c r="C4" t="n">
-        <v>390.77717632153</v>
+        <v>1844.640184885121</v>
       </c>
       <c r="D4" t="n">
-        <v>390.77717632153</v>
+        <v>1694.523545472786</v>
       </c>
       <c r="E4" t="n">
-        <v>242.8640827391368</v>
+        <v>1546.610451890393</v>
       </c>
       <c r="F4" t="n">
-        <v>157.1019332386098</v>
+        <v>1399.720504392482</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386098</v>
+        <v>1231.734039700761</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>1082.995141564267</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>977.1399948936603</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>1002.609167878779</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>1174.299679627705</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>1750.112669035316</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.98193257148</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>2309.019775324692</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>2508.006390496681</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234358</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T4" t="n">
-        <v>1216.838891429094</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U4" t="n">
-        <v>1216.838891429094</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V4" t="n">
-        <v>962.1544032232067</v>
+        <v>2307.654840194268</v>
       </c>
       <c r="W4" t="n">
-        <v>962.1544032232067</v>
+        <v>2307.654840194268</v>
       </c>
       <c r="X4" t="n">
-        <v>962.1544032232067</v>
+        <v>2307.654840194268</v>
       </c>
       <c r="Y4" t="n">
-        <v>741.3618240796766</v>
+        <v>2086.862261050738</v>
       </c>
     </row>
     <row r="5">
@@ -4543,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1617.332751740275</v>
+        <v>797.0848490996759</v>
       </c>
       <c r="C5" t="n">
-        <v>1248.370234799863</v>
+        <v>428.1223321592641</v>
       </c>
       <c r="D5" t="n">
-        <v>1248.370234799863</v>
+        <v>69.85663355251366</v>
       </c>
       <c r="E5" t="n">
-        <v>1248.370234799863</v>
+        <v>69.85663355251366</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>62.91113280331018</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345445</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362831</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816097</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872929</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
         <v>2542.250581723851</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2498.102542686072</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2498.102542686072</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190806</v>
+        <v>2244.521481950252</v>
       </c>
       <c r="V5" t="n">
-        <v>2184.059060190806</v>
+        <v>1913.458594606682</v>
       </c>
       <c r="W5" t="n">
-        <v>2184.059060190806</v>
+        <v>1560.689939336567</v>
       </c>
       <c r="X5" t="n">
-        <v>1810.593301929726</v>
+        <v>1187.224181075488</v>
       </c>
       <c r="Y5" t="n">
-        <v>1810.593301929726</v>
+        <v>797.0848490996759</v>
       </c>
     </row>
     <row r="6">
@@ -4622,55 +4622,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L6" t="n">
-        <v>638.0146769637288</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1001.276695922949</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1635.455679701987</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1967.526114878149</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710446</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676483</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
         <v>2426.617474780096</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>457.1299527650195</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C7" t="n">
-        <v>288.1937698371127</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D7" t="n">
-        <v>288.1937698371127</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E7" t="n">
-        <v>140.2806762547195</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>140.2806762547195</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G7" t="n">
-        <v>140.2806762547195</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H7" t="n">
-        <v>140.2806762547195</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>859.5709967387894</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W7" t="n">
-        <v>859.5709967387894</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X7" t="n">
-        <v>859.5709967387894</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y7" t="n">
-        <v>638.7784175952593</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1811.579746109089</v>
+        <v>1918.208919851716</v>
       </c>
       <c r="C8" t="n">
-        <v>1442.617229168677</v>
+        <v>1549.246402911305</v>
       </c>
       <c r="D8" t="n">
-        <v>1171.901920325867</v>
+        <v>1190.980704304554</v>
       </c>
       <c r="E8" t="n">
-        <v>786.1136677276231</v>
+        <v>805.1924517063098</v>
       </c>
       <c r="F8" t="n">
-        <v>375.1277629380156</v>
+        <v>394.2065469167023</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410102</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V8" t="n">
-        <v>2961.784676410102</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W8" t="n">
-        <v>2961.784676410102</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="X8" t="n">
-        <v>2588.318918149022</v>
+        <v>2304.808759915838</v>
       </c>
       <c r="Y8" t="n">
-        <v>2198.17958617321</v>
+        <v>2304.808759915838</v>
       </c>
     </row>
     <row r="9">
@@ -4877,7 +4877,7 @@
         <v>176.0213023927786</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064629</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4889,7 +4889,7 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>431.4421061205821</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C10" t="n">
-        <v>431.4421061205821</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D10" t="n">
-        <v>281.3254667082464</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E10" t="n">
-        <v>133.4123731258533</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>880.2242361621296</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>652.2346852641123</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>431.4421061205821</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,34 +5029,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5068,22 +5068,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349513</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>869.6905094135296</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C13" t="n">
-        <v>700.7543264856228</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D13" t="n">
-        <v>550.637687073287</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>397.4723325755821</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5199,52 +5199,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2371.250989330786</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2151.649524353727</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1862.574297697925</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1607.889809492038</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1318.472639455077</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1090.48308855706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>869.6905094135296</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5257,31 +5257,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
@@ -5293,7 +5293,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5311,16 +5311,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,22 +5354,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703114</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>526.5658826424045</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>526.5658826424045</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
@@ -5436,52 +5436,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5515,19 +5515,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5603,19 +5603,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1702.079034721979</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>924.6979859831846</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C19" t="n">
-        <v>755.7618030552777</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>605.645163642942</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>457.7320700605488</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>310.8421225626385</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>310.8421225626385</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>169.1302914048365</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956954</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X19" t="n">
-        <v>1327.139029956954</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y19" t="n">
-        <v>1106.346450813424</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="20">
@@ -5734,25 +5734,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5761,13 +5761,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5831,25 +5831,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961525</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M21" t="n">
-        <v>1337.934786622704</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N21" t="n">
-        <v>1965.532750177311</v>
+        <v>1654.485273605118</v>
       </c>
       <c r="O21" t="n">
-        <v>2517.442480416598</v>
+        <v>2206.395003844405</v>
       </c>
       <c r="P21" t="n">
-        <v>2517.442480416598</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2939.372134388645</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>2770.435951460738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>2770.435951460738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>2770.435951460738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>2623.546003962827</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>2939.372134388645</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5977,34 +5977,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192601</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>801.6605733532801</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C25" t="n">
-        <v>632.7243904253733</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>632.7243904253733</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1144.284195611859</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>923.4916164683287</v>
+        <v>929.7309773356195</v>
       </c>
     </row>
     <row r="26">
@@ -6214,37 +6214,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>924.8344286397185</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1344.266747951537</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>996.5276398439761</v>
+        <v>868.6673633290469</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V28" t="n">
-        <v>1688.385853854707</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W28" t="n">
-        <v>1398.968683817746</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X28" t="n">
-        <v>1398.968683817746</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y28" t="n">
-        <v>1178.176104674216</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="29">
@@ -6439,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6475,40 +6475,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>542.9134462654469</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M30" t="n">
-        <v>1140.291933891999</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N30" t="n">
-        <v>1767.889897446606</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>699.7311804011399</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>699.7311804011399</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D31" t="n">
-        <v>549.6145409888042</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888042</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1874.263433515775</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1619.578945309888</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1330.161775272927</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1102.17222437491</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y31" t="n">
-        <v>881.3796452313796</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="32">
@@ -6676,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>221.3431781811715</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>716.6687843969303</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>789.7592298206043</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>620.8230468926974</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D34" t="n">
-        <v>470.7064074803617</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E34" t="n">
-        <v>322.7933138979686</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1964.291482935239</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1709.606994729352</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1420.189824692392</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>1192.200273794374</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>971.4076946508441</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
         <v>1948.813509611463</v>
@@ -6931,16 +6931,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332388</v>
@@ -6952,37 +6952,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>513.8536007400717</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192605</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,28 +7186,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7268,13 +7268,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2532.719182723414</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1023.721406539404</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>854.7852236114971</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1205.369871369644</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1205.369871369644</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7408,31 +7408,31 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.58045691144</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>847.644273983533</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711973</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888042</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U43" t="n">
-        <v>2044.506784258106</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
-        <v>1789.822296052219</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1500.405126015259</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>1272.415575117241</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>1198.22892174168</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,13 +7660,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3195.647281583948</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>3026.711098656041</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>2876.594459243706</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>4115.495046492696</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>4115.495046492696</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>3826.077876455735</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>3598.088325557718</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>3377.295746414188</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621886</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>186.5911984019045</v>
+        <v>138.9393975111053</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,19 +8294,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L6" t="n">
-        <v>45.44676101130892</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>249.3877325071651</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>10.32607348286601</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>106.0713126946645</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>3.727996117236017</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>6.705344245269529</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,10 +24138,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>104.0840080815004</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>59.21924749803919</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>165.5113759375338</v>
       </c>
     </row>
     <row r="26">
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>170.2393389614409</v>
       </c>
       <c r="C28" t="n">
-        <v>101.1181252153547</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24840,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>184.0188038644575</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25086,7 +25086,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -25095,7 +25095,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>273.1465727897273</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>124.9899273367992</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25551,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D40" t="n">
-        <v>74.196296186881</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>145.1398665102887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>115.0314858713384</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>694613.8252466779</v>
+        <v>694613.8252466777</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>694613.8252466777</v>
+        <v>694613.8252466779</v>
       </c>
     </row>
     <row r="10">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>694613.8252466777</v>
+        <v>694613.8252466779</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>694613.8252466779</v>
+        <v>694613.8252466777</v>
       </c>
     </row>
   </sheetData>
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778544</v>
+        <v>738937.5928778546</v>
       </c>
       <c r="C2" t="n">
         <v>738937.5928778545</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778553</v>
+        <v>738937.5928778552</v>
       </c>
       <c r="E2" t="n">
-        <v>726431.939721005</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="F2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="G2" t="n">
         <v>726431.9397210054</v>
       </c>
-      <c r="G2" t="n">
-        <v>726431.9397210055</v>
-      </c>
       <c r="H2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="I2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="J2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="K2" t="n">
+        <v>726431.9397210049</v>
+      </c>
+      <c r="L2" t="n">
+        <v>726431.9397210056</v>
+      </c>
+      <c r="M2" t="n">
         <v>726431.9397210053</v>
-      </c>
-      <c r="I2" t="n">
-        <v>726431.9397210049</v>
-      </c>
-      <c r="J2" t="n">
-        <v>726431.9397210053</v>
-      </c>
-      <c r="K2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="L2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="M2" t="n">
-        <v>726431.9397210052</v>
       </c>
       <c r="N2" t="n">
         <v>726431.9397210054</v>
@@ -26355,7 +26355,7 @@
         <v>726431.9397210055</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210053</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403378</v>
+        <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>167605.1778099825</v>
@@ -26395,16 +26395,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819063</v>
+        <v>48293.9700081908</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>5.148837678054155e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,40 +26423,40 @@
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810789</v>
+        <v>88524.23512810784</v>
       </c>
       <c r="E4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="G4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="I4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="J4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="K4" t="n">
+        <v>9337.200356756655</v>
+      </c>
+      <c r="L4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="M4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="N4" t="n">
         <v>9337.200356756592</v>
       </c>
-      <c r="K4" t="n">
-        <v>9337.200356756592</v>
-      </c>
-      <c r="L4" t="n">
-        <v>9337.200356756592</v>
-      </c>
-      <c r="M4" t="n">
-        <v>9337.200356756508</v>
-      </c>
-      <c r="N4" t="n">
-        <v>9337.200356756563</v>
-      </c>
       <c r="O4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="P4" t="n">
         <v>9337.200356756592</v>
@@ -26524,46 +26524,46 @@
         <v>-605478.2368300123</v>
       </c>
       <c r="C6" t="n">
-        <v>509273.5467459072</v>
+        <v>509273.5467459075</v>
       </c>
       <c r="D6" t="n">
-        <v>349852.2767480163</v>
+        <v>349852.2767480161</v>
       </c>
       <c r="E6" t="n">
-        <v>290559.747732986</v>
+        <v>290212.3684786294</v>
       </c>
       <c r="F6" t="n">
-        <v>615972.2095403417</v>
+        <v>615624.8302859847</v>
       </c>
       <c r="G6" t="n">
-        <v>615972.2095403421</v>
+        <v>615624.8302859848</v>
       </c>
       <c r="H6" t="n">
-        <v>615972.2095403416</v>
+        <v>615624.8302859846</v>
       </c>
       <c r="I6" t="n">
-        <v>615972.2095403412</v>
+        <v>615624.8302859848</v>
       </c>
       <c r="J6" t="n">
-        <v>448367.031730359</v>
+        <v>448019.6524760022</v>
       </c>
       <c r="K6" t="n">
-        <v>615972.2095403417</v>
+        <v>615624.8302859842</v>
       </c>
       <c r="L6" t="n">
-        <v>567678.2395321513</v>
+        <v>567330.8602777942</v>
       </c>
       <c r="M6" t="n">
-        <v>530917.1816048298</v>
+        <v>530569.8023504729</v>
       </c>
       <c r="N6" t="n">
-        <v>615972.2095403417</v>
+        <v>615624.8302859848</v>
       </c>
       <c r="O6" t="n">
-        <v>615972.2095403419</v>
+        <v>615624.8302859849</v>
       </c>
       <c r="P6" t="n">
-        <v>615972.2095403417</v>
+        <v>615624.8302859847</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175393</v>
+      </c>
+      <c r="C3" t="n">
         <v>934.0648921175391</v>
-      </c>
-      <c r="C3" t="n">
-        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26795,7 +26795,7 @@
         <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26816,16 +26816,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757591</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022534</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,22 +27381,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>166.5817679046413</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>247.6227733565412</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>107.2789458766046</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>60.51652001740945</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27587,10 +27587,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>191.405896975924</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>59.85779754185177</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -27675,16 +27675,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27779,22 +27779,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>16.65304441405132</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>201.1568951983999</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>86.67488586630162</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>86.50423947377976</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -27906,13 +27906,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28022,10 +28022,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>79.1897938961981</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>94.35543628911113</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28058,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -29529,7 +29529,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31281,43 +31281,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,7 +31372,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31381,25 +31381,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31472,13 +31472,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>439.2440297647763</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>279.0775374915851</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31998,34 +31998,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32323,22 +32323,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>301.6445156724565</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32551,13 +32551,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32569,10 +32569,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>248.5245325067415</v>
       </c>
       <c r="Q21" t="n">
-        <v>175.960367665998</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>242.2322097768135</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>565.8030433278957</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>254.8897444730604</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>414.9172504145583</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>264.8708611242907</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>354.9153144485699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>166.2270851128133</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>270.948695672725</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>640.5848321000387</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>303.0719207327591</v>
+        <v>255.4201198419598</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L6" t="n">
-        <v>343.1271216491591</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>640.584832100039</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35105,7 +35105,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35114,7 +35114,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>300.6896499849021</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>136.4812930471406</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35971,22 +35971,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>159.048271228012</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36199,13 +36199,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36217,10 +36217,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>114.5501250924112</v>
       </c>
       <c r="Q21" t="n">
-        <v>35.9785935799765</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,25 +36442,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>103.6778299969394</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>423.6690094058774</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36916,25 +36916,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>116.3353646931863</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>283.575538331225</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>127.0294221499317</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>20.54758114884936</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>128.8146617507067</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3352787.798464481</v>
+        <v>3354548.328767265</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -670,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>407.2400468701229</v>
       </c>
       <c r="H2" t="n">
-        <v>53.39577920586418</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247047</v>
@@ -712,10 +712,10 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>72.55303430533274</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -825,7 +825,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>4.769661757201177</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>221.1219290850971</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>63.59441785694261</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1059,13 +1059,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>239.3135884893127</v>
       </c>
       <c r="V7" t="n">
-        <v>50.98074812542808</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1144,10 +1144,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>324.4174861796737</v>
+        <v>302.044310734003</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>71.6703719699171</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634824</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>14.73874327217562</v>
       </c>
       <c r="F13" t="n">
-        <v>135.0949745400652</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1666,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701359</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428209</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1846,10 +1846,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620684</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>83.06560892428209</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>78.91051008678096</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.07327741456097</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881303</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>9.592641220496363</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2724,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>100.5858322992707</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695675</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>110.017717176686</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>87.21471514852939</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3091,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174139</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>87.2147151485299</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>19.91555826189057</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881294</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>63.16281301712667</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>105.6507867899569</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018862</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1367.208738248819</v>
+        <v>904.8820361188236</v>
       </c>
       <c r="C2" t="n">
-        <v>998.2462213084073</v>
+        <v>535.919519178412</v>
       </c>
       <c r="D2" t="n">
-        <v>998.2462213084073</v>
+        <v>535.919519178412</v>
       </c>
       <c r="E2" t="n">
-        <v>998.2462213084073</v>
+        <v>535.919519178412</v>
       </c>
       <c r="F2" t="n">
-        <v>587.2603165187998</v>
+        <v>528.9740184292085</v>
       </c>
       <c r="G2" t="n">
-        <v>171.5555662430886</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4360,22 +4360,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2437.640120926626</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2106.577233583055</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1753.808578312941</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1753.808578312941</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="Y2" t="n">
-        <v>1753.808578312941</v>
+        <v>1291.481876182945</v>
       </c>
     </row>
     <row r="3">
@@ -4391,46 +4391,46 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>143.6627691908469</v>
       </c>
       <c r="K3" t="n">
-        <v>684.9695361605189</v>
+        <v>590.2049751143497</v>
       </c>
       <c r="L3" t="n">
-        <v>979.6730931919907</v>
+        <v>884.9085321458215</v>
       </c>
       <c r="M3" t="n">
-        <v>1342.935112151211</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N3" t="n">
-        <v>1730.220240748156</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O3" t="n">
-        <v>2062.290675924318</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
-        <v>2309.473409756615</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4442,7 +4442,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2013.576367813028</v>
+        <v>944.587906063767</v>
       </c>
       <c r="C4" t="n">
-        <v>1844.640184885121</v>
+        <v>775.6517231358602</v>
       </c>
       <c r="D4" t="n">
-        <v>1694.523545472786</v>
+        <v>625.5350837235244</v>
       </c>
       <c r="E4" t="n">
-        <v>1546.610451890393</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F4" t="n">
-        <v>1399.720504392482</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G4" t="n">
-        <v>1231.734039700761</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>1082.995141564267</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936603</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.609167878779</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627705</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035316</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.98193257148</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324692</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496681</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>2307.654840194268</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W4" t="n">
-        <v>2307.654840194268</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X4" t="n">
-        <v>2307.654840194268</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="Y4" t="n">
-        <v>2086.862261050738</v>
+        <v>1126.236370894007</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>797.0848490996759</v>
+        <v>1067.6853146838</v>
       </c>
       <c r="C5" t="n">
-        <v>428.1223321592641</v>
+        <v>1067.6853146838</v>
       </c>
       <c r="D5" t="n">
-        <v>69.85663355251366</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E5" t="n">
-        <v>69.85663355251366</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331018</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800312</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800312</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362831</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816097</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872929</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2498.102542686072</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2498.102542686072</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2244.521481950252</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V5" t="n">
-        <v>1913.458594606682</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="W5" t="n">
-        <v>1560.689939336567</v>
+        <v>1831.290404920691</v>
       </c>
       <c r="X5" t="n">
-        <v>1187.224181075488</v>
+        <v>1457.824646659611</v>
       </c>
       <c r="Y5" t="n">
-        <v>797.0848490996759</v>
+        <v>1067.6853146838</v>
       </c>
     </row>
     <row r="6">
@@ -4643,7 +4643,7 @@
         <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>665.1026499885492</v>
+        <v>220.18296949591</v>
       </c>
       <c r="C7" t="n">
-        <v>496.1664670606423</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D7" t="n">
-        <v>346.0498276483066</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E7" t="n">
-        <v>198.1367340659135</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
         <v>76.71595955312198</v>
@@ -4758,19 +4758,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1394.715222610545</v>
       </c>
       <c r="V7" t="n">
-        <v>1584.950414897297</v>
+        <v>1140.030734404658</v>
       </c>
       <c r="W7" t="n">
-        <v>1295.533244860336</v>
+        <v>850.6135643676972</v>
       </c>
       <c r="X7" t="n">
-        <v>1067.543693962319</v>
+        <v>622.6240134696799</v>
       </c>
       <c r="Y7" t="n">
-        <v>846.7511148187889</v>
+        <v>401.8314343261497</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1918.208919851716</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="C8" t="n">
-        <v>1549.246402911305</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="D8" t="n">
-        <v>1190.980704304554</v>
+        <v>764.341133147311</v>
       </c>
       <c r="E8" t="n">
-        <v>805.1924517063098</v>
+        <v>378.5528805490667</v>
       </c>
       <c r="F8" t="n">
-        <v>394.2065469167023</v>
+        <v>371.6073797998633</v>
       </c>
       <c r="G8" t="n">
         <v>66.51211643218343</v>
@@ -4813,13 +4813,13 @@
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176918</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W8" t="n">
-        <v>2678.274518176918</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X8" t="n">
-        <v>2304.808759915838</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y8" t="n">
-        <v>2304.808759915838</v>
+        <v>1878.169188758595</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064629</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4895,28 +4895,28 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.7622949738579</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C10" t="n">
-        <v>583.826112045951</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D10" t="n">
-        <v>433.7094726336153</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E10" t="n">
-        <v>285.7963790512222</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>138.9064315533118</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4998,16 +4998,16 @@
         <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845645</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947628</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040977</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5035,58 +5035,58 @@
         <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703109</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C13" t="n">
-        <v>695.5020655703109</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="D13" t="n">
-        <v>545.3854261579752</v>
+        <v>422.7903292978464</v>
       </c>
       <c r="E13" t="n">
-        <v>397.4723325755821</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="14">
@@ -5257,70 +5257,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,64 +5503,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5734,40 +5734,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5828,25 +5828,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K21" t="n">
         <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>429.5088224239596</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M21" t="n">
-        <v>1026.887310050512</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N21" t="n">
-        <v>1654.485273605118</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O21" t="n">
-        <v>2206.395003844405</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
         <v>2319.799627685893</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5971,34 +5971,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
@@ -6065,13 +6065,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>929.7309773356195</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6214,25 +6214,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
         <v>2206.55866301478</v>
@@ -6241,22 +6241,22 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>868.6673633290469</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C28" t="n">
-        <v>699.73118040114</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D28" t="n">
-        <v>549.6145409888043</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>277.5052172074025</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993915</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W28" t="n">
-        <v>1327.139029956954</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X28" t="n">
-        <v>1099.149479058937</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y28" t="n">
-        <v>878.3568999154069</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="29">
@@ -6439,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6481,34 +6481,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="L30" t="n">
-        <v>429.5088224239596</v>
+        <v>590.9096564684979</v>
       </c>
       <c r="M30" t="n">
-        <v>1026.887310050512</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1815.886107649657</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6718,34 +6718,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597619</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="D34" t="n">
-        <v>261.8464821474262</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>113.9333885650331</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="35">
@@ -6925,25 +6925,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075824</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M35" t="n">
         <v>2206.55866301478</v>
@@ -6952,34 +6952,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7028,7 +7028,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7162,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,16 +7186,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7265,7 +7265,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7399,37 +7399,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852256</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7502,7 +7502,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,16 +7660,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>30.36925650589448</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>138.9393975111053</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1.27897692436818e-12</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>131.6952193743936</v>
       </c>
       <c r="F13" t="n">
-        <v>10.32607348286601</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>165.5113759375338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>170.2393389614409</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>39.70888054695311</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>57.22910392194183</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>61.40075786968245</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>125.5054897610407</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>116.6691671648106</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,16 +25836,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>57.22910392194183</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>694613.8252466779</v>
+        <v>694613.8252466777</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>694613.8252466777</v>
+        <v>694613.8252466779</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>694613.8252466779</v>
+        <v>694613.8252466777</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778546</v>
+        <v>738937.5928778544</v>
       </c>
       <c r="C2" t="n">
         <v>738937.5928778545</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778552</v>
+        <v>738937.5928778551</v>
       </c>
       <c r="E2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="F2" t="n">
         <v>726431.9397210052</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="H2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="I2" t="n">
+        <v>726431.9397210049</v>
+      </c>
+      <c r="J2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="L2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="M2" t="n">
         <v>726431.9397210054</v>
       </c>
-      <c r="H2" t="n">
+      <c r="N2" t="n">
+        <v>726431.939721005</v>
+      </c>
+      <c r="O2" t="n">
         <v>726431.9397210052</v>
-      </c>
-      <c r="I2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="J2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="K2" t="n">
-        <v>726431.9397210049</v>
-      </c>
-      <c r="L2" t="n">
-        <v>726431.9397210056</v>
-      </c>
-      <c r="M2" t="n">
-        <v>726431.9397210053</v>
-      </c>
-      <c r="N2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="O2" t="n">
-        <v>726431.9397210055</v>
       </c>
       <c r="P2" t="n">
         <v>726431.9397210053</v>
@@ -26374,7 +26374,7 @@
         <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.9700081908</v>
+        <v>48293.97000819071</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,13 +26426,13 @@
         <v>88524.23512810784</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756508</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756544</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756577</v>
       </c>
       <c r="H4" t="n">
         <v>9337.200356756592</v>
@@ -26441,25 +26441,25 @@
         <v>9337.200356756592</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756515</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.200356756655</v>
+        <v>9337.200356756524</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.20035675655</v>
       </c>
       <c r="M4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756552</v>
       </c>
       <c r="N4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="O4" t="n">
+        <v>9337.200356756592</v>
+      </c>
+      <c r="P4" t="n">
         <v>9337.20035675659</v>
-      </c>
-      <c r="P4" t="n">
-        <v>9337.200356756592</v>
       </c>
     </row>
     <row r="5">
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>92937.77243984472</v>
+      </c>
+      <c r="C5" t="n">
         <v>92937.7724398447</v>
-      </c>
-      <c r="C5" t="n">
-        <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-605478.2368300123</v>
+        <v>-605478.2368300128</v>
       </c>
       <c r="C6" t="n">
         <v>509273.5467459075</v>
       </c>
       <c r="D6" t="n">
-        <v>349852.2767480161</v>
+        <v>349852.2767480159</v>
       </c>
       <c r="E6" t="n">
-        <v>290212.3684786294</v>
+        <v>290525.0098075505</v>
       </c>
       <c r="F6" t="n">
-        <v>615624.8302859847</v>
+        <v>615937.4716149057</v>
       </c>
       <c r="G6" t="n">
-        <v>615624.8302859848</v>
+        <v>615937.4716149061</v>
       </c>
       <c r="H6" t="n">
-        <v>615624.8302859846</v>
+        <v>615937.4716149062</v>
       </c>
       <c r="I6" t="n">
-        <v>615624.8302859848</v>
+        <v>615937.4716149056</v>
       </c>
       <c r="J6" t="n">
-        <v>448019.6524760022</v>
+        <v>448332.2938049232</v>
       </c>
       <c r="K6" t="n">
-        <v>615624.8302859842</v>
+        <v>615937.4716149059</v>
       </c>
       <c r="L6" t="n">
-        <v>567330.8602777942</v>
+        <v>567643.5016067151</v>
       </c>
       <c r="M6" t="n">
-        <v>530569.8023504729</v>
+        <v>530882.4436793942</v>
       </c>
       <c r="N6" t="n">
-        <v>615624.8302859848</v>
+        <v>615937.4716149057</v>
       </c>
       <c r="O6" t="n">
-        <v>615624.8302859849</v>
+        <v>615937.4716149059</v>
       </c>
       <c r="P6" t="n">
-        <v>615624.8302859847</v>
+        <v>615937.4716149061</v>
       </c>
     </row>
   </sheetData>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26813,16 +26813,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26968,7 +26968,7 @@
         <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.816623302254</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,13 +27390,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>4.307655902831129</v>
       </c>
       <c r="H2" t="n">
-        <v>247.6227733565412</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>107.2789458766046</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27545,7 +27545,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>141.664300889368</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27596,10 +27596,10 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>133.5611125355858</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>59.85779754185177</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -27675,7 +27675,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27779,13 +27779,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
@@ -27830,10 +27830,10 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>46.91356563188788</v>
       </c>
       <c r="V7" t="n">
-        <v>201.1568951983999</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27864,10 +27864,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>86.50423947377976</v>
+        <v>108.8774149194504</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>94.35543628911113</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28070,10 +28070,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-1.478428093796983e-12</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28386,7 +28386,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-1.023181539494544e-12</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -29331,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>-1.676880856393836e-12</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29529,7 +29529,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29562,7 +29562,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>-1.141346619952392e-12</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29811,7 +29811,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>-5.780283390417846e-13</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>439.2440297647763</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,16 +32080,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
         <v>398.7616643558013</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,37 +32554,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>314.3020503687023</v>
       </c>
       <c r="P21" t="n">
-        <v>248.5245325067415</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,37 +33265,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>414.9172504145583</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>459.3154675919701</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,19 +33739,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,19 +33976,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,19 +34213,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>93.34947739681193</v>
       </c>
       <c r="K3" t="n">
         <v>451.0527332560634</v>
@@ -34798,10 +34798,10 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>255.4201198419598</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>300.6896499849021</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,13 +35731,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
         <v>256.1654199113569</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -36205,22 +36205,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>171.7058059242579</v>
       </c>
       <c r="P21" t="n">
-        <v>114.5501250924112</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>283.575538331225</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>316.7192231475257</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,16 +37864,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
